--- a/differences_3_0.45.xlsx
+++ b/differences_3_0.45.xlsx
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>13.59999999999999</v>
+        <v>13</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>0.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
